--- a/_site/rooming.xlsx
+++ b/_site/rooming.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="108">
   <si>
     <t>first</t>
   </si>
@@ -162,7 +162,22 @@
     <t>working</t>
   </si>
   <si>
+    <t>Utopiscus Jose Abascal - 1 month rental - including 1 room in exclusive for the group, access to the shared spaces, WIFI, furniture, security and cleaning service, fresh fruit every morning, Organic coffee, tea and water , access 24/7 and free meeting room rental upon availability,</t>
+  </si>
+  <si>
+    <t>Utopiscus Gran Via - 1 month rental - including 1 room in exclusive for the group, access to the shared spaces, WIFI, furniture, security and cleaning service, fresh fruit every morning, Organic coffee, tea and water , access 24/7 and free meeting room rental upon availability,</t>
+  </si>
+  <si>
     <t>Muelle 36 - 1 month rental - All the venue in exclusive for the group, including 3 different spaces and kitchen. It is including free access 24/7 and WIFI. No furniture, cleaning or security service included.</t>
+  </si>
+  <si>
+    <t>Palacio de Santa Barbara - 1 month rental - All the venue in exclusive for the group. It is including WIFI, access from 8.00h to 00.00h, 300€ of electricity and water. No furniture, cleaning or security service included.</t>
+  </si>
+  <si>
+    <t>La Grada -  1 month rental - All the venue in exclusive for the group.  It is including free access 24/7 and WIFI. No furniture, cleaning or security service included.</t>
+  </si>
+  <si>
+    <t>Harley Las Ventas - 1 month rental - All the venue in exclusive for the group. No furniture, cleaning or security service included.</t>
   </si>
   <si>
     <t>Ana La Santa - Tapas menu, drinks and coffees, rates per person from</t>
@@ -2181,10 +2196,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Helvetica"/>
-            <a:ea typeface="Helvetica"/>
-            <a:cs typeface="Helvetica"/>
-            <a:sym typeface="Helvetica"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -2752,10 +2767,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Helvetica"/>
-            <a:ea typeface="Helvetica"/>
-            <a:cs typeface="Helvetica"/>
-            <a:sym typeface="Helvetica"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -5924,7 +5939,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G52"/>
+  <dimension ref="A1:G57"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -6153,7 +6168,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="17" ht="13.65" customHeight="1">
+    <row r="17" ht="24.65" customHeight="1">
       <c r="A17" s="75"/>
       <c r="B17" s="92"/>
       <c r="C17" t="s" s="102">
@@ -6363,7 +6378,7 @@
         <v>0</v>
       </c>
       <c r="E27" s="100">
-        <v>33300</v>
+        <v>43000</v>
       </c>
       <c r="F27" s="101">
         <f>E27*D27</f>
@@ -6373,394 +6388,494 @@
         <v>47</v>
       </c>
     </row>
-    <row r="28" ht="13.65" customHeight="1">
+    <row r="28" ht="35.65" customHeight="1">
       <c r="A28" s="75"/>
       <c r="B28" s="97"/>
       <c r="C28" t="s" s="103">
         <v>49</v>
       </c>
       <c r="D28" s="104">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="E28" s="100">
-        <v>55</v>
+        <v>43000</v>
       </c>
       <c r="F28" s="101">
         <f>E28*D28</f>
-        <v>3850</v>
+        <v>0</v>
       </c>
       <c r="G28" t="s" s="91">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="29" ht="24.65" customHeight="1">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="29" ht="35.65" customHeight="1">
       <c r="A29" s="75"/>
       <c r="B29" s="97"/>
       <c r="C29" t="s" s="103">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D29" s="104">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="E29" s="100">
-        <v>43</v>
+        <v>33300</v>
       </c>
       <c r="F29" s="101">
         <f>E29*D29</f>
-        <v>3010</v>
+        <v>0</v>
       </c>
       <c r="G29" t="s" s="91">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="30" ht="13.65" customHeight="1">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="30" ht="42.05" customHeight="1">
       <c r="A30" s="75"/>
       <c r="B30" s="97"/>
       <c r="C30" t="s" s="103">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D30" s="104">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="E30" s="100">
-        <v>75.7</v>
+        <v>35000</v>
       </c>
       <c r="F30" s="101">
         <f>E30*D30</f>
-        <v>5299</v>
+        <v>0</v>
       </c>
       <c r="G30" t="s" s="91">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="31" ht="13.65" customHeight="1">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="31" ht="24.65" customHeight="1">
       <c r="A31" s="75"/>
       <c r="B31" s="97"/>
       <c r="C31" t="s" s="103">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D31" s="104">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="E31" s="100">
-        <v>30</v>
+        <v>18000</v>
       </c>
       <c r="F31" s="101">
         <f>E31*D31</f>
-        <v>2100</v>
+        <v>0</v>
       </c>
       <c r="G31" t="s" s="91">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="32" ht="24.65" customHeight="1">
       <c r="A32" s="75"/>
       <c r="B32" s="97"/>
       <c r="C32" t="s" s="103">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D32" s="104">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="E32" s="100">
-        <v>76</v>
+        <v>206000</v>
       </c>
       <c r="F32" s="101">
         <f>E32*D32</f>
-        <v>5320</v>
+        <v>0</v>
       </c>
       <c r="G32" t="s" s="91">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="33" ht="13.65" customHeight="1">
       <c r="A33" s="75"/>
       <c r="B33" s="97"/>
       <c r="C33" t="s" s="103">
+        <v>54</v>
+      </c>
+      <c r="D33" s="104">
+        <v>70</v>
+      </c>
+      <c r="E33" s="100">
         <v>55</v>
-      </c>
-      <c r="D33" s="104">
-        <v>2</v>
-      </c>
-      <c r="E33" s="100">
-        <v>600</v>
       </c>
       <c r="F33" s="101">
         <f>E33*D33</f>
-        <v>1200</v>
+        <v>3850</v>
       </c>
       <c r="G33" t="s" s="91">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="34" ht="13.65" customHeight="1">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="34" ht="24.65" customHeight="1">
       <c r="A34" s="75"/>
       <c r="B34" s="97"/>
       <c r="C34" t="s" s="103">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D34" s="104">
-        <v>2</v>
+        <v>70</v>
       </c>
       <c r="E34" s="100">
-        <v>315</v>
+        <v>43</v>
       </c>
       <c r="F34" s="101">
         <f>E34*D34</f>
-        <v>630</v>
+        <v>3010</v>
       </c>
       <c r="G34" t="s" s="91">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="35" ht="24.65" customHeight="1">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="35" ht="13.65" customHeight="1">
       <c r="A35" s="75"/>
       <c r="B35" s="97"/>
       <c r="C35" t="s" s="103">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D35" s="104">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="E35" s="100">
-        <v>70</v>
+        <v>75.7</v>
       </c>
       <c r="F35" s="101">
         <f>E35*D35</f>
-        <v>0</v>
+        <v>5299</v>
       </c>
       <c r="G35" t="s" s="91">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="36" ht="24.65" customHeight="1">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="36" ht="13.65" customHeight="1">
       <c r="A36" s="75"/>
       <c r="B36" s="97"/>
       <c r="C36" t="s" s="103">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D36" s="104">
         <v>70</v>
       </c>
       <c r="E36" s="100">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="F36" s="101">
         <f>E36*D36</f>
-        <v>4200</v>
+        <v>2100</v>
       </c>
       <c r="G36" t="s" s="91">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="37" ht="13.65" customHeight="1">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="37" ht="24.65" customHeight="1">
       <c r="A37" s="75"/>
       <c r="B37" s="97"/>
       <c r="C37" t="s" s="103">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D37" s="104">
         <v>70</v>
       </c>
       <c r="E37" s="100">
-        <v>45.5</v>
+        <v>76</v>
       </c>
       <c r="F37" s="101">
         <f>E37*D37</f>
-        <v>3185</v>
+        <v>5320</v>
       </c>
       <c r="G37" t="s" s="91">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="38" ht="13.65" customHeight="1">
       <c r="A38" s="75"/>
       <c r="B38" s="97"/>
       <c r="C38" t="s" s="103">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D38" s="104">
         <v>2</v>
       </c>
       <c r="E38" s="100">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="F38" s="101">
         <f>E38*D38</f>
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="G38" t="s" s="91">
-        <v>56</v>
+        <v>61</v>
       </c>
     </row>
     <row r="39" ht="13.65" customHeight="1">
       <c r="A39" s="75"/>
       <c r="B39" s="97"/>
       <c r="C39" t="s" s="103">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D39" s="104">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E39" s="100">
-        <v>7800</v>
+        <v>315</v>
       </c>
       <c r="F39" s="101">
         <f>E39*D39</f>
-        <v>7800</v>
+        <v>630</v>
       </c>
       <c r="G39" t="s" s="91">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="40" ht="14.15" customHeight="1">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="40" ht="24.65" customHeight="1">
       <c r="A40" s="75"/>
       <c r="B40" s="97"/>
       <c r="C40" t="s" s="103">
         <v>64</v>
       </c>
-      <c r="D40" s="105">
+      <c r="D40" s="104">
+        <v>0</v>
+      </c>
+      <c r="E40" s="100">
+        <v>70</v>
+      </c>
+      <c r="F40" s="101">
+        <f>E40*D40</f>
+        <v>0</v>
+      </c>
+      <c r="G40" t="s" s="91">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="41" ht="24.65" customHeight="1">
+      <c r="A41" s="75"/>
+      <c r="B41" s="97"/>
+      <c r="C41" t="s" s="103">
+        <v>65</v>
+      </c>
+      <c r="D41" s="104">
+        <v>70</v>
+      </c>
+      <c r="E41" s="100">
+        <v>60</v>
+      </c>
+      <c r="F41" s="101">
+        <f>E41*D41</f>
+        <v>4200</v>
+      </c>
+      <c r="G41" t="s" s="91">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="42" ht="13.65" customHeight="1">
+      <c r="A42" s="75"/>
+      <c r="B42" s="97"/>
+      <c r="C42" t="s" s="103">
+        <v>66</v>
+      </c>
+      <c r="D42" s="104">
+        <v>70</v>
+      </c>
+      <c r="E42" s="100">
+        <v>45.5</v>
+      </c>
+      <c r="F42" s="101">
+        <f>E42*D42</f>
+        <v>3185</v>
+      </c>
+      <c r="G42" t="s" s="91">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="43" ht="13.65" customHeight="1">
+      <c r="A43" s="75"/>
+      <c r="B43" s="97"/>
+      <c r="C43" t="s" s="103">
+        <v>67</v>
+      </c>
+      <c r="D43" s="104">
         <v>2</v>
       </c>
-      <c r="E40" s="106">
+      <c r="E43" s="100">
         <v>400</v>
       </c>
-      <c r="F40" s="107">
-        <f>E40*D40</f>
+      <c r="F43" s="101">
+        <f>E43*D43</f>
         <v>800</v>
       </c>
-      <c r="G40" t="s" s="91">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="41" ht="15.15" customHeight="1">
-      <c r="A41" s="75"/>
-      <c r="B41" s="108"/>
-      <c r="C41" t="s" s="109">
-        <v>65</v>
-      </c>
-      <c r="D41" s="110">
+      <c r="G43" t="s" s="91">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="44" ht="13.65" customHeight="1">
+      <c r="A44" s="75"/>
+      <c r="B44" s="97"/>
+      <c r="C44" t="s" s="103">
+        <v>68</v>
+      </c>
+      <c r="D44" s="104">
+        <v>1</v>
+      </c>
+      <c r="E44" s="100">
+        <v>7800</v>
+      </c>
+      <c r="F44" s="101">
+        <f>E44*D44</f>
+        <v>7800</v>
+      </c>
+      <c r="G44" t="s" s="91">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="45" ht="14.15" customHeight="1">
+      <c r="A45" s="75"/>
+      <c r="B45" s="97"/>
+      <c r="C45" t="s" s="103">
+        <v>69</v>
+      </c>
+      <c r="D45" s="105">
+        <v>2</v>
+      </c>
+      <c r="E45" s="106">
+        <v>400</v>
+      </c>
+      <c r="F45" s="107">
+        <f>E45*D45</f>
+        <v>800</v>
+      </c>
+      <c r="G45" t="s" s="91">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="46" ht="15.15" customHeight="1">
+      <c r="A46" s="75"/>
+      <c r="B46" s="108"/>
+      <c r="C46" t="s" s="109">
         <v>70</v>
       </c>
-      <c r="E41" s="111">
+      <c r="D46" s="110">
+        <v>70</v>
+      </c>
+      <c r="E46" s="111">
         <v>10</v>
       </c>
-      <c r="F41" s="112">
-        <f>E41*D41</f>
+      <c r="F46" s="112">
+        <f>E46*D46</f>
         <v>700</v>
       </c>
-      <c r="G41" t="s" s="91">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="42" ht="13.5" customHeight="1">
-      <c r="A42" s="113"/>
-      <c r="B42" s="114"/>
-      <c r="C42" t="s" s="115">
-        <v>66</v>
-      </c>
-      <c r="D42" s="116"/>
-      <c r="E42" s="116"/>
-      <c r="F42" s="117">
+      <c r="G46" t="s" s="91">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="47" ht="13.5" customHeight="1">
+      <c r="A47" s="113"/>
+      <c r="B47" s="114"/>
+      <c r="C47" t="s" s="115">
+        <v>71</v>
+      </c>
+      <c r="D47" s="116"/>
+      <c r="E47" s="116"/>
+      <c r="F47" s="117">
         <v>0</v>
       </c>
-      <c r="G42" s="118"/>
-    </row>
-    <row r="43" ht="12.75" customHeight="1">
-      <c r="A43" s="71"/>
-      <c r="B43" s="119"/>
-      <c r="C43" s="119"/>
-      <c r="D43" s="119"/>
-      <c r="E43" s="119"/>
-      <c r="F43" s="119"/>
-      <c r="G43" s="73"/>
-    </row>
-    <row r="44" ht="12.75" customHeight="1">
-      <c r="A44" s="71"/>
-      <c r="B44" s="72"/>
-      <c r="C44" s="72"/>
-      <c r="D44" s="72"/>
-      <c r="E44" s="72"/>
-      <c r="F44" s="72"/>
-      <c r="G44" s="73"/>
-    </row>
-    <row r="45" ht="12.75" customHeight="1">
-      <c r="A45" s="71"/>
-      <c r="B45" s="72"/>
-      <c r="C45" s="72"/>
-      <c r="D45" s="72"/>
-      <c r="E45" s="72"/>
-      <c r="F45" s="72"/>
-      <c r="G45" s="73"/>
-    </row>
-    <row r="46" ht="12.75" customHeight="1">
-      <c r="A46" s="71"/>
-      <c r="B46" s="72"/>
-      <c r="C46" s="72"/>
-      <c r="D46" s="72"/>
-      <c r="E46" s="72"/>
-      <c r="F46" s="72"/>
-      <c r="G46" s="73"/>
-    </row>
-    <row r="47" ht="12.75" customHeight="1">
-      <c r="A47" s="71"/>
-      <c r="B47" s="72"/>
-      <c r="C47" s="72"/>
-      <c r="D47" s="72"/>
-      <c r="E47" s="72"/>
-      <c r="F47" s="72"/>
-      <c r="G47" s="73"/>
+      <c r="G47" s="118"/>
     </row>
     <row r="48" ht="12.75" customHeight="1">
       <c r="A48" s="71"/>
-      <c r="B48" s="72"/>
-      <c r="C48" s="72"/>
-      <c r="D48" s="72"/>
-      <c r="E48" s="72"/>
-      <c r="F48" s="72"/>
+      <c r="B48" s="119"/>
+      <c r="C48" s="119"/>
+      <c r="D48" s="119"/>
+      <c r="E48" s="119"/>
+      <c r="F48" s="119"/>
       <c r="G48" s="73"/>
     </row>
     <row r="49" ht="12.75" customHeight="1">
       <c r="A49" s="71"/>
-      <c r="B49" t="s" s="120">
-        <v>67</v>
-      </c>
-      <c r="C49" s="121"/>
-      <c r="D49" s="121"/>
-      <c r="E49" s="121"/>
-      <c r="F49" s="121"/>
-      <c r="G49" s="122"/>
+      <c r="B49" s="72"/>
+      <c r="C49" s="72"/>
+      <c r="D49" s="72"/>
+      <c r="E49" s="72"/>
+      <c r="F49" s="72"/>
+      <c r="G49" s="73"/>
     </row>
     <row r="50" ht="12.75" customHeight="1">
       <c r="A50" s="71"/>
-      <c r="B50" t="s" s="120">
-        <v>68</v>
-      </c>
-      <c r="C50" s="121"/>
-      <c r="D50" s="121"/>
-      <c r="E50" s="121"/>
-      <c r="F50" s="121"/>
-      <c r="G50" s="122"/>
+      <c r="B50" s="72"/>
+      <c r="C50" s="72"/>
+      <c r="D50" s="72"/>
+      <c r="E50" s="72"/>
+      <c r="F50" s="72"/>
+      <c r="G50" s="73"/>
     </row>
     <row r="51" ht="12.75" customHeight="1">
       <c r="A51" s="71"/>
-      <c r="B51" t="s" s="120">
-        <v>69</v>
-      </c>
-      <c r="C51" s="121"/>
-      <c r="D51" s="121"/>
-      <c r="E51" s="121"/>
-      <c r="F51" s="121"/>
-      <c r="G51" s="122"/>
+      <c r="B51" s="72"/>
+      <c r="C51" s="72"/>
+      <c r="D51" s="72"/>
+      <c r="E51" s="72"/>
+      <c r="F51" s="72"/>
+      <c r="G51" s="73"/>
     </row>
     <row r="52" ht="12.75" customHeight="1">
-      <c r="A52" s="123"/>
-      <c r="B52" s="124"/>
-      <c r="C52" s="124"/>
-      <c r="D52" s="124"/>
-      <c r="E52" s="124"/>
-      <c r="F52" s="124"/>
-      <c r="G52" s="125"/>
+      <c r="A52" s="71"/>
+      <c r="B52" s="72"/>
+      <c r="C52" s="72"/>
+      <c r="D52" s="72"/>
+      <c r="E52" s="72"/>
+      <c r="F52" s="72"/>
+      <c r="G52" s="73"/>
+    </row>
+    <row r="53" ht="12.75" customHeight="1">
+      <c r="A53" s="71"/>
+      <c r="B53" s="72"/>
+      <c r="C53" s="72"/>
+      <c r="D53" s="72"/>
+      <c r="E53" s="72"/>
+      <c r="F53" s="72"/>
+      <c r="G53" s="73"/>
+    </row>
+    <row r="54" ht="12.75" customHeight="1">
+      <c r="A54" s="71"/>
+      <c r="B54" t="s" s="120">
+        <v>72</v>
+      </c>
+      <c r="C54" s="121"/>
+      <c r="D54" s="121"/>
+      <c r="E54" s="121"/>
+      <c r="F54" s="121"/>
+      <c r="G54" s="122"/>
+    </row>
+    <row r="55" ht="12.75" customHeight="1">
+      <c r="A55" s="71"/>
+      <c r="B55" t="s" s="120">
+        <v>73</v>
+      </c>
+      <c r="C55" s="121"/>
+      <c r="D55" s="121"/>
+      <c r="E55" s="121"/>
+      <c r="F55" s="121"/>
+      <c r="G55" s="122"/>
+    </row>
+    <row r="56" ht="12.75" customHeight="1">
+      <c r="A56" s="71"/>
+      <c r="B56" t="s" s="120">
+        <v>74</v>
+      </c>
+      <c r="C56" s="121"/>
+      <c r="D56" s="121"/>
+      <c r="E56" s="121"/>
+      <c r="F56" s="121"/>
+      <c r="G56" s="122"/>
+    </row>
+    <row r="57" ht="12.75" customHeight="1">
+      <c r="A57" s="123"/>
+      <c r="B57" s="124"/>
+      <c r="C57" s="124"/>
+      <c r="D57" s="124"/>
+      <c r="E57" s="124"/>
+      <c r="F57" s="124"/>
+      <c r="G57" s="125"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6818,7 +6933,7 @@
         <v>16</v>
       </c>
       <c r="D3" t="s" s="76">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E3" s="77"/>
       <c r="F3" s="72"/>
@@ -6832,7 +6947,7 @@
         <v>18</v>
       </c>
       <c r="D4" t="s" s="78">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="E4" s="77"/>
       <c r="F4" s="72"/>
@@ -6846,7 +6961,7 @@
         <v>20</v>
       </c>
       <c r="D5" t="s" s="78">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="E5" s="77"/>
       <c r="F5" s="72"/>
@@ -6860,7 +6975,7 @@
         <v>22</v>
       </c>
       <c r="D6" t="s" s="78">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="E6" s="77"/>
       <c r="F6" s="72"/>
@@ -6874,7 +6989,7 @@
         <v>24</v>
       </c>
       <c r="D7" t="s" s="78">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="E7" s="77"/>
       <c r="F7" s="72"/>
@@ -6888,7 +7003,7 @@
         <v>25</v>
       </c>
       <c r="D8" t="s" s="80">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="E8" s="77"/>
       <c r="F8" s="72"/>
@@ -6929,19 +7044,19 @@
       <c r="A12" s="71"/>
       <c r="B12" s="72"/>
       <c r="C12" t="s" s="128">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="D12" t="s" s="129">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="E12" t="s" s="129">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="F12" t="s" s="129">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="G12" t="s" s="130">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="H12" t="s" s="85">
         <v>32</v>
@@ -6954,7 +7069,7 @@
         <v>43577</v>
       </c>
       <c r="D13" t="s" s="132">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="E13" s="133">
         <v>50</v>
@@ -6977,7 +7092,7 @@
         <v>43577</v>
       </c>
       <c r="D14" t="s" s="93">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="E14" s="94">
         <v>24</v>
@@ -7000,7 +7115,7 @@
         <v>43577</v>
       </c>
       <c r="D15" t="s" s="98">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="E15" s="99">
         <f>E13*2+E14</f>
@@ -7024,7 +7139,7 @@
         <v>43578</v>
       </c>
       <c r="D16" t="s" s="102">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="E16" s="94">
         <v>1</v>
@@ -7036,7 +7151,7 @@
         <v>228</v>
       </c>
       <c r="H16" t="s" s="136">
-        <v>56</v>
+        <v>61</v>
       </c>
     </row>
     <row r="17" ht="38.25" customHeight="1">
@@ -7046,7 +7161,7 @@
         <v>43578</v>
       </c>
       <c r="D17" t="s" s="103">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="E17" s="104">
         <v>1</v>
@@ -7058,7 +7173,7 @@
         <v>345</v>
       </c>
       <c r="H17" t="s" s="136">
-        <v>56</v>
+        <v>61</v>
       </c>
     </row>
     <row r="18" ht="13.65" customHeight="1">
@@ -7068,7 +7183,7 @@
         <v>43578</v>
       </c>
       <c r="D18" t="s" s="102">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="E18" s="94">
         <v>40</v>
@@ -7080,7 +7195,7 @@
         <v>60</v>
       </c>
       <c r="H18" t="s" s="136">
-        <v>56</v>
+        <v>61</v>
       </c>
     </row>
     <row r="19" ht="13.65" customHeight="1">
@@ -7090,7 +7205,7 @@
         <v>43578</v>
       </c>
       <c r="D19" t="s" s="103">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="E19" s="104">
         <v>34</v>
@@ -7102,7 +7217,7 @@
         <v>1564</v>
       </c>
       <c r="H19" t="s" s="136">
-        <v>58</v>
+        <v>63</v>
       </c>
     </row>
     <row r="20" ht="13.65" customHeight="1">
@@ -7112,7 +7227,7 @@
         <v>43578</v>
       </c>
       <c r="D20" t="s" s="102">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E20" s="94">
         <v>62</v>
@@ -7125,7 +7240,7 @@
         <v>2356</v>
       </c>
       <c r="H20" t="s" s="136">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21" ht="13.65" customHeight="1">
@@ -7135,7 +7250,7 @@
         <v>43579</v>
       </c>
       <c r="D21" t="s" s="103">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="E21" s="104">
         <v>102</v>
@@ -7147,7 +7262,7 @@
         <v>357</v>
       </c>
       <c r="H21" t="s" s="136">
-        <v>58</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -7157,7 +7272,7 @@
         <v>43579</v>
       </c>
       <c r="D22" t="s" s="102">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="E22" s="94">
         <v>1</v>
@@ -7169,7 +7284,7 @@
         <v>228</v>
       </c>
       <c r="H22" t="s" s="136">
-        <v>56</v>
+        <v>61</v>
       </c>
     </row>
     <row r="23" ht="25.5" customHeight="1">
@@ -7179,7 +7294,7 @@
         <v>43579</v>
       </c>
       <c r="D23" t="s" s="103">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E23" s="104">
         <v>1</v>
@@ -7191,7 +7306,7 @@
         <v>228</v>
       </c>
       <c r="H23" t="s" s="136">
-        <v>56</v>
+        <v>61</v>
       </c>
     </row>
     <row r="24" ht="13.5" customHeight="1">
@@ -7201,7 +7316,7 @@
         <v>43579</v>
       </c>
       <c r="D24" t="s" s="142">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="E24" s="143">
         <v>40</v>
@@ -7213,7 +7328,7 @@
         <v>60</v>
       </c>
       <c r="H24" t="s" s="136">
-        <v>56</v>
+        <v>61</v>
       </c>
     </row>
     <row r="25" ht="13.5" customHeight="1">
@@ -7221,7 +7336,7 @@
       <c r="B25" s="127"/>
       <c r="C25" s="146"/>
       <c r="D25" t="s" s="147">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="E25" s="148"/>
       <c r="F25" s="148"/>
@@ -7229,7 +7344,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="s" s="91">
-        <v>92</v>
+        <v>97</v>
       </c>
     </row>
     <row r="26" ht="12.75" customHeight="1">
@@ -7257,7 +7372,7 @@
       <c r="B28" s="72"/>
       <c r="C28" s="127"/>
       <c r="D28" t="s" s="152">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="E28" s="77"/>
       <c r="F28" s="72"/>
@@ -7269,7 +7384,7 @@
       <c r="B29" s="72"/>
       <c r="C29" s="127"/>
       <c r="D29" t="s" s="153">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="E29" s="77"/>
       <c r="F29" s="72"/>
@@ -7281,7 +7396,7 @@
       <c r="B30" s="72"/>
       <c r="C30" s="127"/>
       <c r="D30" t="s" s="154">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="E30" s="77"/>
       <c r="F30" s="72"/>
@@ -7293,7 +7408,7 @@
       <c r="B31" s="72"/>
       <c r="C31" s="127"/>
       <c r="D31" t="s" s="154">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="E31" s="77"/>
       <c r="F31" s="72"/>
@@ -7305,7 +7420,7 @@
       <c r="B32" s="72"/>
       <c r="C32" s="127"/>
       <c r="D32" t="s" s="155">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="E32" s="77"/>
       <c r="F32" s="72"/>
@@ -7366,7 +7481,7 @@
       <c r="A38" s="71"/>
       <c r="B38" s="72"/>
       <c r="C38" t="s" s="120">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="D38" s="121"/>
       <c r="E38" s="121"/>
@@ -7378,7 +7493,7 @@
       <c r="A39" s="71"/>
       <c r="B39" s="72"/>
       <c r="C39" t="s" s="120">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="D39" s="121"/>
       <c r="E39" s="121"/>
@@ -7390,7 +7505,7 @@
       <c r="A40" s="71"/>
       <c r="B40" s="72"/>
       <c r="C40" t="s" s="120">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="D40" s="121"/>
       <c r="E40" s="121"/>
@@ -7458,13 +7573,13 @@
     <row r="4" ht="13.65" customHeight="1">
       <c r="A4" s="11"/>
       <c r="B4" t="s" s="158">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="C4" t="s" s="158">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="D4" t="s" s="158">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="E4" s="11"/>
     </row>
@@ -7477,7 +7592,7 @@
         <v>3239.21</v>
       </c>
       <c r="D5" t="s" s="158">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="E5" s="11"/>
     </row>
@@ -7490,7 +7605,7 @@
         <v>6478.42</v>
       </c>
       <c r="D6" t="s" s="158">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="E6" s="11"/>
     </row>
@@ -7503,7 +7618,7 @@
         <v>6478.42</v>
       </c>
       <c r="D7" t="s" s="158">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="E7" s="11"/>
     </row>
